--- a/results/mp/logistic/corona/confidence/84/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,67 +46,64 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>stop</t>
@@ -115,10 +112,13 @@
     <t>oil</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>with</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>on</t>
   </si>
   <si>
     <t>19</t>
@@ -127,97 +127,109 @@
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>special</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>won</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>like</t>
@@ -226,94 +238,130 @@
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>!</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
-    <t>at</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -671,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -782,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7773972602739726</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7222222222222222</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -882,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -890,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6551724137931034</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.631578947368421</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6176470588235294</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,37 +1138,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6086956521739131</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1132,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
         <v>0.8113207547169812</v>
@@ -1190,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5945945945945946</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.80625</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -1258,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8046875</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4515503875968992</v>
+        <v>0.4224806201550387</v>
       </c>
       <c r="C14">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D14">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4509803921568628</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4406779661016949</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4391534391534391</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C17">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.7674418604651163</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.358974358974359</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.32</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.76</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2909090909090909</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.7586206896551724</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2678571428571428</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,16 +1709,16 @@
         <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1682,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2550335570469799</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.734375</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2222222222222222</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C23">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.7073170731707317</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1948051948051948</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1625</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1858,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>228</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K25">
-        <v>0.6441176470588236</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1349206349206349</v>
+        <v>0.05</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,31 +1956,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.6292517006802721</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L26">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,37 +1988,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07000000000000001</v>
+        <v>0.01841680129240711</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>279</v>
+        <v>3038</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.5941422594142259</v>
+        <v>0.66</v>
       </c>
       <c r="L27">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,37 +2038,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.064343163538874</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>349</v>
+        <v>1132</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.5846153846153846</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,37 +2088,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01988636363636364</v>
+        <v>0.01594331266607617</v>
       </c>
       <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>0.38</v>
+      </c>
+      <c r="F29">
+        <v>0.62</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1111</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L29">
         <v>14</v>
       </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>0.22</v>
-      </c>
-      <c r="F29">
-        <v>0.78</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>690</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
       <c r="M29">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0132013201320132</v>
+        <v>0.0146295422369042</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <v>0.44</v>
@@ -2108,19 +2156,19 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2132,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2140,37 +2188,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01310782241014799</v>
+        <v>0.01310228233305156</v>
       </c>
       <c r="C31">
         <v>31</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F31">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.5425531914893617</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2190,37 +2238,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01261727596247169</v>
+        <v>0.009435816787890702</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E32">
-        <v>0.29</v>
+        <v>0.62</v>
       </c>
       <c r="F32">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>3052</v>
+        <v>5039</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.5280898876404494</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2232,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2240,37 +2288,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01236749116607774</v>
+        <v>0.008741258741258742</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E33">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="F33">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1118</v>
+        <v>2268</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2282,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2290,37 +2338,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.009790483649892304</v>
+        <v>0.008335027444602561</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E34">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="F34">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>5057</v>
+        <v>4878</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.3698630136986301</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2332,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2340,37 +2388,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007621467132422992</v>
+        <v>0.007955077211043519</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E35">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="F35">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3125</v>
+        <v>4240</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.35</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2382,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2390,37 +2438,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007417102966841187</v>
+        <v>0.006111894687353079</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2275</v>
+        <v>2114</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2432,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2440,13 +2488,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00689391037916507</v>
+        <v>0.005736137667304016</v>
       </c>
       <c r="C37">
         <v>18</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>0.78</v>
@@ -2458,31 +2506,31 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2593</v>
+        <v>3120</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.3170731707317073</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M37">
         <v>14</v>
       </c>
       <c r="N37">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2490,88 +2538,64 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0048928238583411</v>
+        <v>0.00497131931166348</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E38">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="F38">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>4271</v>
+        <v>2602</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L38">
+        <v>54</v>
+      </c>
+      <c r="M38">
+        <v>54</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K38">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="L38">
+      <c r="K39">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L39">
         <v>16</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>16</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.004875076173065204</v>
-      </c>
-      <c r="C39">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>97</v>
-      </c>
-      <c r="E39">
-        <v>0.75</v>
-      </c>
-      <c r="F39">
-        <v>0.25</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>4899</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="L39">
-        <v>24</v>
-      </c>
-      <c r="M39">
-        <v>24</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
@@ -2582,21 +2606,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.265625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2608,21 +2632,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.2456140350877193</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2634,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.05844155844155844</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2660,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>290</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.04753199268738574</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2686,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>521</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.04166666666666666</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L44">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2712,85 +2736,85 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.03357314148681055</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>403</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.02532928064842958</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>962</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.02335216572504708</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2593</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2798,25 +2822,25 @@
         <v>90</v>
       </c>
       <c r="K48">
-        <v>0.02317880794701987</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>590</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2824,25 +2848,25 @@
         <v>91</v>
       </c>
       <c r="K49">
-        <v>0.02059496567505721</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N49">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>856</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2850,25 +2874,25 @@
         <v>92</v>
       </c>
       <c r="K50">
-        <v>0.02024922118380062</v>
+        <v>0.25</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1258</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2876,25 +2900,25 @@
         <v>93</v>
       </c>
       <c r="K51">
-        <v>0.02021772939346812</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>630</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2902,25 +2926,25 @@
         <v>94</v>
       </c>
       <c r="K52">
-        <v>0.01765447667087012</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1558</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2928,25 +2952,25 @@
         <v>95</v>
       </c>
       <c r="K53">
-        <v>0.01732435033686237</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1021</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2954,311 +2978,753 @@
         <v>96</v>
       </c>
       <c r="K54">
-        <v>0.01673640167364017</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>2350</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="K55">
-        <v>0.01636764242996538</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L55">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="N55">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K56">
-        <v>0.01631116687578419</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N56">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>784</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K57">
-        <v>0.01560574948665298</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N57">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="O57">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K58">
-        <v>0.01537028411737308</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>2114</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="K59">
-        <v>0.01468222043443282</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L59">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4899</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="K60">
-        <v>0.01133919843597263</v>
+        <v>0.05008347245409015</v>
       </c>
       <c r="L60">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M60">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="N60">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0.46</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>5057</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="K61">
-        <v>0.01040189125295508</v>
+        <v>0.04036697247706422</v>
       </c>
       <c r="L61">
         <v>22</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N61">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="O61">
-        <v>0.5600000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2093</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="K62">
-        <v>0.008358486185279778</v>
+        <v>0.03350253807106599</v>
       </c>
       <c r="L62">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N62">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="O62">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>4271</v>
+        <v>952</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="K63">
-        <v>0.007417102966841187</v>
+        <v>0.02653399668325042</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N63">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="O63">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>2275</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="K64">
-        <v>0.00596252129471891</v>
+        <v>0.025</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N64">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2334</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K65">
+        <v>0.02332814930015552</v>
+      </c>
+      <c r="L65">
+        <v>15</v>
+      </c>
+      <c r="M65">
+        <v>22</v>
+      </c>
+      <c r="N65">
+        <v>0.68</v>
+      </c>
+      <c r="O65">
+        <v>0.32</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66">
+        <v>0.02180451127819549</v>
+      </c>
+      <c r="L66">
+        <v>58</v>
+      </c>
+      <c r="M66">
+        <v>71</v>
+      </c>
+      <c r="N66">
+        <v>0.82</v>
+      </c>
+      <c r="O66">
+        <v>0.18</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K67">
+        <v>0.02137279079325935</v>
+      </c>
+      <c r="L67">
+        <v>52</v>
+      </c>
+      <c r="M67">
+        <v>64</v>
+      </c>
+      <c r="N67">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68">
+        <v>0.01979264844486334</v>
+      </c>
+      <c r="L68">
+        <v>63</v>
+      </c>
+      <c r="M68">
+        <v>81</v>
+      </c>
+      <c r="N68">
+        <v>0.78</v>
+      </c>
+      <c r="O68">
+        <v>0.22</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69">
+        <v>0.0196652719665272</v>
+      </c>
+      <c r="L69">
+        <v>47</v>
+      </c>
+      <c r="M69">
+        <v>51</v>
+      </c>
+      <c r="N69">
+        <v>0.92</v>
+      </c>
+      <c r="O69">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K70">
+        <v>0.01954602774274905</v>
+      </c>
+      <c r="L70">
+        <v>31</v>
+      </c>
+      <c r="M70">
+        <v>39</v>
+      </c>
+      <c r="N70">
+        <v>0.79</v>
+      </c>
+      <c r="O70">
+        <v>0.21</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="L71">
+        <v>15</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+      <c r="N71">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O71">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72">
+        <v>0.01553985872855701</v>
+      </c>
+      <c r="L72">
+        <v>77</v>
+      </c>
+      <c r="M72">
+        <v>118</v>
+      </c>
+      <c r="N72">
+        <v>0.65</v>
+      </c>
+      <c r="O72">
+        <v>0.35</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K65">
-        <v>0.005215123859191656</v>
-      </c>
-      <c r="L65">
+      <c r="K73">
+        <v>0.01524330662497557</v>
+      </c>
+      <c r="L73">
+        <v>78</v>
+      </c>
+      <c r="M73">
+        <v>126</v>
+      </c>
+      <c r="N73">
+        <v>0.62</v>
+      </c>
+      <c r="O73">
+        <v>0.38</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K74">
+        <v>0.01513622603430878</v>
+      </c>
+      <c r="L74">
+        <v>15</v>
+      </c>
+      <c r="M74">
+        <v>23</v>
+      </c>
+      <c r="N74">
+        <v>0.65</v>
+      </c>
+      <c r="O74">
+        <v>0.35</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75">
+        <v>0.01445221445221445</v>
+      </c>
+      <c r="L75">
+        <v>31</v>
+      </c>
+      <c r="M75">
+        <v>44</v>
+      </c>
+      <c r="N75">
+        <v>0.7</v>
+      </c>
+      <c r="O75">
+        <v>0.3</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76">
+        <v>0.01351351351351351</v>
+      </c>
+      <c r="L76">
+        <v>13</v>
+      </c>
+      <c r="M76">
+        <v>19</v>
+      </c>
+      <c r="N76">
+        <v>0.68</v>
+      </c>
+      <c r="O76">
+        <v>0.32</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77">
+        <v>0.01257568700512343</v>
+      </c>
+      <c r="L77">
+        <v>54</v>
+      </c>
+      <c r="M77">
+        <v>88</v>
+      </c>
+      <c r="N77">
+        <v>0.61</v>
+      </c>
+      <c r="O77">
+        <v>0.39</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K78">
+        <v>0.01250977326035966</v>
+      </c>
+      <c r="L78">
         <v>16</v>
       </c>
-      <c r="M65">
+      <c r="M78">
+        <v>26</v>
+      </c>
+      <c r="N78">
+        <v>0.62</v>
+      </c>
+      <c r="O78">
+        <v>0.38</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="L79">
+        <v>24</v>
+      </c>
+      <c r="M79">
         <v>55</v>
       </c>
-      <c r="N65">
-        <v>0.29</v>
-      </c>
-      <c r="O65">
-        <v>0.71</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>3052</v>
+      <c r="N79">
+        <v>0.44</v>
+      </c>
+      <c r="O79">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K80">
+        <v>0.0103397341211226</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <v>0.61</v>
+      </c>
+      <c r="O80">
+        <v>0.39</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>0.009174311926605505</v>
+      </c>
+      <c r="L81">
+        <v>21</v>
+      </c>
+      <c r="M81">
+        <v>41</v>
+      </c>
+      <c r="N81">
+        <v>0.51</v>
+      </c>
+      <c r="O81">
+        <v>0.49</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82">
+        <v>0.005536626916524702</v>
+      </c>
+      <c r="L82">
+        <v>13</v>
+      </c>
+      <c r="M82">
+        <v>44</v>
+      </c>
+      <c r="N82">
+        <v>0.3</v>
+      </c>
+      <c r="O82">
+        <v>0.7</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2335</v>
       </c>
     </row>
   </sheetData>
